--- a/spec/ASW/Eng/Coolnt/CEngDsT/CEngDsT_DD/CEngDsT_DD.xlsx
+++ b/spec/ASW/Eng/Coolnt/CEngDsT/CEngDsT_DD/CEngDsT_DD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Coolnt\CEngDsT\CEngDsT_DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AE91ED-C476-4621-90EC-F5ECB0FE97DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5611931E-2E12-4475-B8C3-D06A2579BCDD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -346,27 +346,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Coolnt_tMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coolnt_tMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小水温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大水温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Volt_mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>18</v>
@@ -1829,7 +1809,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1860,38 +1840,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="5">
-        <v>-50</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="5">
-        <v>200</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/spec/ASW/Eng/Coolnt/CEngDsT/CEngDsT_DD/CEngDsT_DD.xlsx
+++ b/spec/ASW/Eng/Coolnt/CEngDsT/CEngDsT_DD/CEngDsT_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Coolnt\CEngDsT\CEngDsT_DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5611931E-2E12-4475-B8C3-D06A2579BCDD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48EAC5-4FAF-43C3-B3A6-52188DE4CE2B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -347,6 +347,22 @@
   </si>
   <si>
     <t>Volt_mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maxmium Coolant Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minmium Coolant Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEngDsT_MaxCoolTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEngDsT_MinCoolTemp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +810,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -894,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1158,7 +1174,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1393,7 +1409,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1808,13 +1824,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" customWidth="1"/>
@@ -1840,12 +1856,38 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="7"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="5">
+        <v>150</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="7"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-50</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/spec/ASW/Eng/Coolnt/CEngDsT/CEngDsT_DD/CEngDsT_DD.xlsx
+++ b/spec/ASW/Eng/Coolnt/CEngDsT/CEngDsT_DD/CEngDsT_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Coolnt\CEngDsT\CEngDsT_DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48EAC5-4FAF-43C3-B3A6-52188DE4CE2B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994A0748-AE88-429F-A6AD-260FB0C97BF8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -329,9 +329,6 @@
     <t>linspace(0,5000,26)</t>
   </si>
   <si>
-    <t>Volt_mV</t>
-  </si>
-  <si>
     <t>Temp_C</t>
   </si>
   <si>
@@ -346,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Volt_mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Maxmium Coolant Temperature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,6 +357,9 @@
   <si>
     <t>CEngDsT_MinCoolTemp</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volt_mV2</t>
   </si>
 </sst>
 </file>
@@ -810,7 +806,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -870,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>18</v>
@@ -910,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -972,7 +968,7 @@
         <v>29</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>32</v>
@@ -1408,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1460,7 +1456,7 @@
         <v>5000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>82</v>
@@ -1469,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>71</v>
@@ -1486,16 +1482,16 @@
         <v>150</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>72</v>
@@ -1521,7 +1517,7 @@
         <v>70</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>73</v>
@@ -1547,7 +1543,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>73</v>
@@ -1573,7 +1569,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>74</v>
@@ -1599,7 +1595,7 @@
         <v>70</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>74</v>
@@ -1625,7 +1621,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>75</v>
@@ -1651,7 +1647,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>76</v>
@@ -1677,7 +1673,7 @@
         <v>69</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>77</v>
@@ -1703,7 +1699,7 @@
         <v>69</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>78</v>
@@ -1729,7 +1725,7 @@
         <v>70</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>79</v>
@@ -1755,7 +1751,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>80</v>
@@ -1781,7 +1777,7 @@
         <v>70</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>81</v>
@@ -1807,7 +1803,7 @@
         <v>70</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>81</v>
@@ -1857,7 +1853,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="5">
         <v>150</v>
@@ -1866,15 +1862,15 @@
         <v>69</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5">
         <v>-50</v>
@@ -1883,10 +1879,10 @@
         <v>69</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/spec/ASW/Eng/Coolnt/CEngDsT/CEngDsT_DD/CEngDsT_DD.xlsx
+++ b/spec/ASW/Eng/Coolnt/CEngDsT/CEngDsT_DD/CEngDsT_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Coolnt\CEngDsT\CEngDsT_DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994A0748-AE88-429F-A6AD-260FB0C97BF8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA110706-E402-49E5-A4CA-A9676762BDDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -360,6 +360,26 @@
   </si>
   <si>
     <t>Volt_mV2</t>
+  </si>
+  <si>
+    <t>[1 10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障组，元素为故障ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeros(1,10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_CEngDsT_SRC_FG_CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -472,7 +492,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +541,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1402,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1809,6 +1835,30 @@
         <v>81</v>
       </c>
     </row>
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>65535</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1820,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
